--- a/data/trans_bre/P1802-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1802-Provincia-trans_bre.xlsx
@@ -541,7 +541,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">

--- a/data/trans_bre/P1802-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1802-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,10 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,32 +540,56 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -567,6 +602,10 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -586,17 +625,37 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,02</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,62</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>24,47%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>27,6%</t>
         </is>
       </c>
     </row>
@@ -619,12 +678,32 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,11; 11,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,65; 15,35</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-9,01; 69,76</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>4,44; 56,48</t>
         </is>
       </c>
     </row>
@@ -651,12 +730,32 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,37</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>25,1%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>57,82%</t>
         </is>
       </c>
     </row>
@@ -679,12 +778,32 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,08; 8,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,17; 10,69</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-5,89; 66,71</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>15,35; 123,28</t>
         </is>
       </c>
     </row>
@@ -711,12 +830,32 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,67</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>32,54%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>16,23%</t>
         </is>
       </c>
     </row>
@@ -739,12 +878,32 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,42; 6,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,67; 9,7</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-17,19; 134,57</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-7,37; 49,18</t>
         </is>
       </c>
     </row>
@@ -771,12 +930,32 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,81</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>17,23%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-17,16%</t>
         </is>
       </c>
     </row>
@@ -799,12 +978,32 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,04; 9,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,77; 2,68</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-13,82; 59,29</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-42,77; 22,51</t>
         </is>
       </c>
     </row>
@@ -831,12 +1030,32 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,59</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-1,85%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-58,14%</t>
         </is>
       </c>
     </row>
@@ -859,12 +1078,32 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,99; 6,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,17; -3,33</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-36,14; 44,07</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-75,31; -32,24</t>
         </is>
       </c>
     </row>
@@ -891,12 +1130,32 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,95</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,54</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>51,52%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>14,57%</t>
         </is>
       </c>
     </row>
@@ -919,12 +1178,32 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,65; 13,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,98; 8,66</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2,45; 132,26</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-14,95; 59,89</t>
         </is>
       </c>
     </row>
@@ -951,12 +1230,32 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,31</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,36</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>61,43%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>6,48%</t>
         </is>
       </c>
     </row>
@@ -979,12 +1278,32 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,88; 10,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,28; 7,13</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>22,69; 119,99</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-35,3; 36,99</t>
         </is>
       </c>
     </row>
@@ -1011,12 +1330,32 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,35</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,79</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>36,79%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-40,44%</t>
         </is>
       </c>
     </row>
@@ -1039,12 +1378,32 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,76; 9,27</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,07; 1,49</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>9,96; 72,04</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-79,27; 25,12</t>
         </is>
       </c>
     </row>
@@ -1071,12 +1430,32 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,52</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,7</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>31,44%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>4,14%</t>
         </is>
       </c>
     </row>
@@ -1099,12 +1478,32 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,75; 6,45</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,79; 2,96</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>17,93; 47,21</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-18,44; 19,1</t>
         </is>
       </c>
     </row>
@@ -1118,15 +1517,15 @@
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>

--- a/data/trans_bre/P1802-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1802-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,62</t>
+          <t>9,06</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>27,6%</t>
+          <t>29,94%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,65; 15,35</t>
+          <t>1,51; 15,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,44; 56,48</t>
+          <t>4,56; 63,06</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,37</t>
+          <t>6,69</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>57,82%</t>
+          <t>63,01%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,17; 10,69</t>
+          <t>2,52; 10,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,35; 123,28</t>
+          <t>18,63; 131,31</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>16,23%</t>
+          <t>18,06%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 9,7</t>
+          <t>-1,32; 10,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 49,18</t>
+          <t>-6,08; 52,21</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,81</t>
+          <t>-5,15</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-17,16%</t>
+          <t>-31,3%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 2,68</t>
+          <t>-12,9; 0,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-42,77; 22,51</t>
+          <t>-63,87; 2,47</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-7,59</t>
+          <t>-7,33</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-58,14%</t>
+          <t>-56,72%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,17; -3,33</t>
+          <t>-12,74; -3,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-75,31; -32,24</t>
+          <t>-74,24; -29,79</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>14,57%</t>
+          <t>14,41%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 8,66</t>
+          <t>-3,11; 8,54</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-14,95; 59,89</t>
+          <t>-15,33; 60,03</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>-4,55%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 7,13</t>
+          <t>-12,57; 7,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-35,3; 36,99</t>
+          <t>-53,45; 37,15</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-4,79</t>
+          <t>-23,8</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-40,44%</t>
+          <t>-76,94%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-28,07; 1,49</t>
+          <t>-65,8; 1,59</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-79,27; 25,12</t>
+          <t>-90,06; 27,34</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>-4,69</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>-21,43%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 2,96</t>
+          <t>-23,75; 2,01</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-18,44; 19,1</t>
+          <t>-58,66; 12,54</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P1802-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1802-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 11,82</t>
+          <t>-2,32; 12,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,51; 15,93</t>
+          <t>1,75; 16,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,19 +698,19 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,01; 69,76</t>
+          <t>-10,41; 70,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,56; 63,06</t>
+          <t>4,75; 63,24</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -778,12 +778,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 8,81</t>
+          <t>-0,63; 8,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,52; 10,88</t>
+          <t>2,34; 10,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -798,19 +798,19 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 66,71</t>
+          <t>-3,4; 67,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,63; 131,31</t>
+          <t>16,85; 128,22</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -878,12 +878,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 6,98</t>
+          <t>-2,45; 6,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 10,0</t>
+          <t>-2,59; 9,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-17,19; 134,57</t>
+          <t>-26,7; 112,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 52,21</t>
+          <t>-10,05; 51,76</t>
         </is>
       </c>
     </row>
@@ -978,12 +978,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 9,19</t>
+          <t>-2,43; 9,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,9; 0,45</t>
+          <t>-12,91; 0,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-13,82; 59,29</t>
+          <t>-11,76; 58,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-63,87; 2,47</t>
+          <t>-61,57; 3,95</t>
         </is>
       </c>
     </row>
@@ -1078,12 +1078,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 6,88</t>
+          <t>-8,68; 6,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-12,74; -3,08</t>
+          <t>-12,36; -2,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1098,19 +1098,19 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-36,14; 44,07</t>
+          <t>-37,08; 48,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-74,24; -29,79</t>
+          <t>-72,47; -25,01</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1178,12 +1178,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,65; 13,49</t>
+          <t>0,61; 13,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 8,54</t>
+          <t>-3,54; 7,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1198,19 +1198,19 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,45; 132,26</t>
+          <t>3,13; 127,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-15,33; 60,03</t>
+          <t>-17,04; 54,21</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1278,12 +1278,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,88; 10,55</t>
+          <t>2,67; 10,07</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-12,57; 7,08</t>
+          <t>-12,53; 6,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1298,12 +1298,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>22,69; 119,99</t>
+          <t>22,01; 116,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-53,45; 37,15</t>
+          <t>-53,49; 33,03</t>
         </is>
       </c>
     </row>
@@ -1378,12 +1378,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,76; 9,27</t>
+          <t>1,35; 9,22</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-65,8; 1,59</t>
+          <t>-60,66; 1,68</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1398,12 +1398,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>9,96; 72,04</t>
+          <t>8,04; 73,13</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-90,06; 27,34</t>
+          <t>-90,39; 28,56</t>
         </is>
       </c>
     </row>
@@ -1478,12 +1478,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,75; 6,45</t>
+          <t>2,76; 6,28</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-23,75; 2,01</t>
+          <t>-23,46; 2,12</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1498,12 +1498,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>17,93; 47,21</t>
+          <t>17,72; 46,09</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-58,66; 12,54</t>
+          <t>-58,67; 13,56</t>
         </is>
       </c>
     </row>
